--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.091</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.868</v>
+        <v>18.533</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.115</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.702</v>
+        <v>21.479</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.256</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.506</v>
+        <v>15.335</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.55841290672341</v>
+        <v>-16.66716011275361</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.67161734552081</v>
+        <v>19.9627758090841</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.27575494023859</v>
+        <v>23.61501247236266</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.13301655968895</v>
+        <v>-4.707870047912389</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.44034743913983</v>
+        <v>8.721919949387916</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.10968268163708</v>
+        <v>17.99138338305143</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.50315633672739</v>
+        <v>8.01880698594435</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.3796545080097</v>
+        <v>21.10379125843598</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.94235939308463</v>
+        <v>26.42467361632282</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.49304469616663</v>
+        <v>22.50121627484287</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.34877890418015</v>
+        <v>30.01510377331775</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.72112355753104</v>
+        <v>33.27227816211012</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.23615941459964</v>
+        <v>-0.330294606461214</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>38.3557586221397</v>
+        <v>21.14386652950359</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.2256422092896</v>
+        <v>29.60083401167258</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.31483869524343</v>
+        <v>-16.37876382676249</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.47010141503075</v>
+        <v>23.05221978708077</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.08383032460754</v>
+        <v>27.30976243963528</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.92038566129368</v>
+        <v>-9.285503845277953</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.27142933349533</v>
+        <v>6.931703364770838</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.95061194917521</v>
+        <v>16.89551615763673</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.28945311915918</v>
+        <v>5.21529597221067</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.20682833340513</v>
+        <v>20.7112758129846</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.55716281819247</v>
+        <v>-5.348540687776937</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.67038405132759</v>
+        <v>34.40823088995791</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.27452942131145</v>
+        <v>37.14637930942128</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.13175676408505</v>
+        <v>10.24797210134966</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.43910504820104</v>
+        <v>26.82904326270047</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.10844837012063</v>
+        <v>35.09632845530219</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.50190186734907</v>
+        <v>24.33171827014061</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.37841626209271</v>
+        <v>40.25503263457026</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.94112871640048</v>
+        <v>44.67402757148543</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.4918000055368</v>
+        <v>44.73348367362377</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.34754761739953</v>
+        <v>52.52789294667763</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.71989903655827</v>
+        <v>55.4182926230415</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.23491707916886</v>
+        <v>19.13279209484776</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.35453586935585</v>
+        <v>44.3998883087133</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.22442848982331</v>
+        <v>51.72304817168777</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.31359163258395</v>
+        <v>-1.369108931420625</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.46887125989229</v>
+        <v>41.30283782204348</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.08260798551418</v>
+        <v>44.65566971292093</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.91912883714474</v>
+        <v>9.497161838942121</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.27019003240927</v>
+        <v>28.98352396898891</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.94938076936209</v>
+        <v>37.95915711647012</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.28820162913684</v>
+        <v>25.47971492142235</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34.20559317775854</v>
+        <v>43.91913140555594</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.55855595359353</v>
+        <v>-9.130066574565413</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.67176315719454</v>
+        <v>31.2945404724984</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.27590202793337</v>
+        <v>34.17037980753344</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.13317080083912</v>
+        <v>7.611442320697124</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.44050456606263</v>
+        <v>24.95805553055862</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.10984112431177</v>
+        <v>33.35875824382304</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.50330988802785</v>
+        <v>21.82413024116357</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.37981076109252</v>
+        <v>38.43219785280473</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.94251688214661</v>
+        <v>42.97742533712429</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.49320097165387</v>
+        <v>43.41527631567584</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.34893718270865</v>
+        <v>51.27907744832684</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38.72128299851094</v>
+        <v>54.41372970181737</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.23631388036176</v>
+        <v>17.02907161530304</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.35591630249492</v>
+        <v>43.25827188872039</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>40.22580136156036</v>
+        <v>50.7381407880284</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.31498474672354</v>
+        <v>-4.659124987099533</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.47025024365844</v>
+        <v>38.69970020712217</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.08398043723469</v>
+        <v>42.20454523786013</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.9205429364515</v>
+        <v>7.390300477585226</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.27158950734446</v>
+        <v>27.662609696072</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.9507734470313</v>
+        <v>36.78811020997075</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.28960970287675</v>
+        <v>23.51694644362058</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.20698763100219</v>
+        <v>42.65946165857365</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.56002447539046</v>
+        <v>-10.44186487225872</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.67324744141595</v>
+        <v>28.29719853403454</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.2773868396933</v>
+        <v>32.44286673603706</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.13465757126466</v>
+        <v>5.173232591393832</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.44200751758985</v>
+        <v>20.76468093554731</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32.11134463661332</v>
+        <v>30.57695628857011</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.50479780626602</v>
+        <v>18.1491939352662</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.38131374996977</v>
+        <v>33.17967192372402</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.94402039047255</v>
+        <v>38.97845329107302</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.49471748063604</v>
+        <v>35.63244713981385</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.35046608900976</v>
+        <v>43.45535269782732</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.72281224934794</v>
+        <v>47.38883669824977</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.23782010201504</v>
+        <v>10.81633325234955</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.35744085160653</v>
+        <v>35.02894733397648</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.22732655508184</v>
+        <v>44.11004571181447</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.31646629256511</v>
+        <v>-8.380085699725546</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.47174766103277</v>
+        <v>33.23652885989741</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.08547839144654</v>
+        <v>38.02711972226994</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.92204298346537</v>
+        <v>2.457234004712367</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.27310584796044</v>
+        <v>20.9153044951269</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.9522903580428</v>
+        <v>31.46790626836482</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.29111088280179</v>
+        <v>17.24867315183172</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.20850398657959</v>
+        <v>34.76096177502077</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.7787060217277</v>
+        <v>26.55656945312486</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.37103913433025</v>
+        <v>23.52714069219635</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.2611363339028</v>
+        <v>32.92365467516699</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.64274695992492</v>
+        <v>37.6890711541085</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.1026082762577</v>
+        <v>0.04644556826872481</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.27099653627941</v>
+        <v>26.3674201867745</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>43.1520554380123</v>
+        <v>34.93557415409432</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.17052574949273</v>
+        <v>-15.36377888599231</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.27052623335808</v>
+        <v>26.30321067899153</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.86197336290301</v>
+        <v>31.59400835929092</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>34.96177733946464</v>
+        <v>-8.325814544047114</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41.25613610795085</v>
+        <v>10.5699544256695</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>42.91221802217272</v>
+        <v>21.74857034301038</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>36.29208653411178</v>
+        <v>9.61603549502272</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.15693972969358</v>
+        <v>27.4850323596168</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.70696007052641</v>
+        <v>34.35404269643143</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43.42258764731534</v>
+        <v>35.68789787442508</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.27080116954869</v>
+        <v>45.52203018806726</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.63349309089524</v>
+        <v>51.20921593450645</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42.13887339632286</v>
+        <v>7.224145156289746</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>49.24243382542837</v>
+        <v>36.90274773940046</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.09786814737271</v>
+        <v>46.88890008123335</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.77747847431385</v>
+        <v>48.87382518707968</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.36979760878064</v>
+        <v>49.8320133751665</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>40.25990830623085</v>
+        <v>59.48799655200614</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>41.64152573922996</v>
+        <v>63.87454579099373</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.10136910032325</v>
+        <v>23.52007674819634</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>41.26977707458426</v>
+        <v>53.78972293572608</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>43.15084505694933</v>
+        <v>61.225775708747</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.16932689260869</v>
+        <v>4.119535407200305</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.26934418546638</v>
+        <v>49.05808257947695</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41.860798988845</v>
+        <v>53.39882322989892</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.96056932120524</v>
+        <v>15.09377446185029</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.25494551249996</v>
+        <v>37.29436409437601</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.91103539996722</v>
+        <v>47.43549413920203</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.29088373617093</v>
+        <v>34.55725309627461</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>42.15575317413453</v>
+        <v>55.40102001882939</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.7057809836742</v>
+        <v>61.33654407563899</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.42139511833531</v>
+        <v>66.78027291331169</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>48.26962207334212</v>
+        <v>76.85854150092358</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>49.63232067320752</v>
+        <v>82.15670875752211</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.1376830091876</v>
+        <v>35.47138218389</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>49.24126303619724</v>
+        <v>69.12711269820558</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.09670627433373</v>
+        <v>77.93972136547738</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.77886656298801</v>
+        <v>47.75500401266897</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.37119844899044</v>
+        <v>49.04171550112385</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>40.2612976590141</v>
+        <v>58.75803203255678</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>41.64290945493988</v>
+        <v>63.39606630361374</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.10276576740753</v>
+        <v>21.95730308912582</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.27115725639369</v>
+        <v>53.21232337974875</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>43.15221763942759</v>
+        <v>60.82288870604571</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.17068105970505</v>
+        <v>2.638067798656907</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.27068432297504</v>
+        <v>48.27004992719198</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.86213268651329</v>
+        <v>52.74982625691032</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.96194378125013</v>
+        <v>14.84498535246976</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.25630545050613</v>
+        <v>37.83861975009753</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.9123886372011</v>
+        <v>48.11521057900865</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.29225229945337</v>
+        <v>34.46202449232649</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>42.15710821080039</v>
+        <v>56.01515719387412</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>43.70712974714984</v>
+        <v>62.07916173733927</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.42275615195055</v>
+        <v>67.87593141351783</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>48.2709716864526</v>
+        <v>78.01395733368796</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>49.63366472920556</v>
+        <v>83.55727557646128</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>42.13904002371714</v>
+        <v>35.79265290777873</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>49.24260368419611</v>
+        <v>70.4366633509885</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>51.09803942973168</v>
+        <v>79.4121842468642</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.78038344696248</v>
+        <v>41.12409708785653</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.37272851056435</v>
+        <v>38.52329146092777</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.26284020420184</v>
+        <v>48.22463558404417</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.64445235199393</v>
+        <v>53.69765953133271</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>34.10428547628649</v>
+        <v>13.08112078228761</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.27269541892562</v>
+        <v>42.24327856898052</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>43.15375645743797</v>
+        <v>51.481487746464</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.17215536580148</v>
+        <v>-1.939503137556633</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.27217431024053</v>
+        <v>41.95427916592043</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>41.86362322944795</v>
+        <v>47.75334957883607</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.96343693172236</v>
+        <v>8.973223118534234</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.25781469862839</v>
+        <v>30.15663942684087</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.91389847593322</v>
+        <v>41.89703244654873</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.29374650043919</v>
+        <v>27.2633103135787</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.15861740490692</v>
+        <v>47.19012177932341</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.70863948839498</v>
+        <v>54.55352703683798</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>43.42427917653936</v>
+        <v>56.40492640315837</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>48.2725070396006</v>
+        <v>66.55145996163647</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.63520045684454</v>
+        <v>72.94220561701998</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.14055282197207</v>
+        <v>25.90749229807983</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>49.24413471381797</v>
+        <v>58.46878857920803</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>51.09957113730935</v>
+        <v>69.10615457206693</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.40273079955569</v>
+        <v>-14.44028229646462</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.55694534756476</v>
+        <v>21.61608526772988</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.17117546805332</v>
+        <v>24.42048098647034</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>15.74841892939138</v>
+        <v>-3.425557169154603</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.09778482399058</v>
+        <v>9.363992726855921</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.77791869697255</v>
+        <v>17.66497346474961</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.15660833127835</v>
+        <v>9.506871675238534</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23.07259925175601</v>
+        <v>22.05179841359043</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.64520112430161</v>
+        <v>26.50297867310223</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.10766003008595</v>
+        <v>20.99282432291985</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.99478877702091</v>
+        <v>28.37723956345723</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.37521822999425</v>
+        <v>31.28255148501124</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.86722073367326</v>
+        <v>-2.785713052051596</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.03410189380558</v>
+        <v>17.89078220566115</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.91656218955312</v>
+        <v>25.25729628208263</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18.21135073500886</v>
+        <v>-14.86470840679969</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.40822661283798</v>
+        <v>24.01534359059035</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.03236656630572</v>
+        <v>27.51014127894698</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.58862815784337</v>
+        <v>-8.546262893811358</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.98232885810835</v>
+        <v>7.051079420558233</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.67264122086279</v>
+        <v>16.13966713931908</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.99582683505491</v>
+        <v>6.257810937474053</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.9532748404909</v>
+        <v>21.23148707081912</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15.40145420571331</v>
+        <v>-5.596754399614847</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.55568566537683</v>
+        <v>33.56552846634826</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.1699235596923</v>
+        <v>35.473592289866</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15.74713182133599</v>
+        <v>9.015267053234064</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.0965152420237</v>
+        <v>24.93243776830925</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.7766571943421</v>
+        <v>32.25162227129918</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.15532668286697</v>
+        <v>23.25167163379876</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.07133394055534</v>
+        <v>38.61473827707014</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.64394338121117</v>
+        <v>42.18113448884267</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>24.10638802246731</v>
+        <v>40.61136487460953</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.99353025488771</v>
+        <v>48.26956892453082</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.37396646716705</v>
+        <v>50.83038271696029</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.86595113407292</v>
+        <v>14.0747470724583</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.03285201367716</v>
+        <v>38.51750584001424</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.91532134474965</v>
+        <v>44.77675612803652</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.21007726783942</v>
+        <v>-2.442116257762708</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.40697017207174</v>
+        <v>39.65857027591233</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.03111794062247</v>
+        <v>42.26809673101807</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>18.58734412331623</v>
+        <v>7.609651993384555</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.98106246970913</v>
+        <v>26.45290725630359</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.67138295413956</v>
+        <v>34.57572944157656</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.99454826822137</v>
+        <v>23.84073491636956</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.9520127233122</v>
+        <v>41.73811699884875</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.40287139523976</v>
+        <v>-10.07204164161031</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.557088717828</v>
+        <v>29.75452124886259</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.17132010977482</v>
+        <v>31.80073263863024</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.74857066154568</v>
+        <v>5.671695134561181</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.09793945230541</v>
+        <v>22.35027949370498</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.77807463633112</v>
+        <v>29.80389876605233</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.15675937309104</v>
+        <v>20.02376932669097</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.07275300507945</v>
+        <v>36.06814076418293</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.64535610909287</v>
+        <v>39.76135458569859</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>24.10781371774063</v>
+        <v>38.56906595479064</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.99494446782788</v>
+        <v>46.29370859698324</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>30.37537508066661</v>
+        <v>49.10052482273449</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.86737260142245</v>
+        <v>11.25423367795249</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.0342569882152</v>
+        <v>36.65456230192795</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.91671875071034</v>
+        <v>43.07248765261361</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>18.21149433609993</v>
+        <v>-6.468274415155561</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.4083730008633</v>
+        <v>36.31572178862827</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.03251423378049</v>
+        <v>39.07759606590971</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>18.58878292591021</v>
+        <v>4.752059243019561</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.98248653527564</v>
+        <v>24.3771154486427</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.6728002173411</v>
+        <v>32.65070223372118</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>19.99598091075212</v>
+        <v>21.11287567341645</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.9534316398167</v>
+        <v>39.70991694003252</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>15.40432349264614</v>
+        <v>-10.11214792986044</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.55855667726689</v>
+        <v>28.0345462052213</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.17278865123028</v>
+        <v>31.32268381651389</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>15.75004063676599</v>
+        <v>4.499162796045303</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.09942570940327</v>
+        <v>19.42933289312396</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.77956151119237</v>
+        <v>28.26334728590532</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.15823055173894</v>
+        <v>17.6516098028151</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.07423934940654</v>
+        <v>32.12403130214947</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.64684302613153</v>
+        <v>37.04365899339837</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.10931341915581</v>
+        <v>32.10896943022241</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.99645665013676</v>
+        <v>39.79115336738565</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.37688765614736</v>
+        <v>43.37285581472209</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>22.8688620497711</v>
+        <v>6.360623183814985</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.03576487712567</v>
+        <v>29.75156079449338</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.91822734832472</v>
+        <v>37.7321414460375</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>18.21295963712541</v>
+        <v>-8.907361016885842</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.40985427467588</v>
+        <v>32.1391579643904</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.03399610005074</v>
+        <v>36.15719905544109</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>18.59026635981754</v>
+        <v>1.093206140489963</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>24.98398636523438</v>
+        <v>18.9099455669412</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.67430067588008</v>
+        <v>28.57743581044067</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>19.99746553337182</v>
+        <v>16.15636962154674</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.9549315346906</v>
+        <v>33.12803120472076</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.535359638411</v>
+        <v>26.28920093370598</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.03962125540107</v>
+        <v>21.658675000501</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.96156680308564</v>
+        <v>30.92160769396956</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.35151860709179</v>
+        <v>35.37480916929619</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.78725234965934</v>
+        <v>-2.791184902394916</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.00362751562645</v>
+        <v>22.74048280216473</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.89763505068413</v>
+        <v>30.3439692439529</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.54257464826288</v>
+        <v>-12.16368646447716</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.68468418719323</v>
+        <v>29.01950903975217</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.28669666871046</v>
+        <v>33.52788129359836</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.11264047349604</v>
+        <v>-5.93302124615551</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.45017830850986</v>
+        <v>12.41883168419964</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>35.11755837167384</v>
+        <v>22.70025595345202</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.48061616133766</v>
+        <v>12.37225433600188</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.38602789955159</v>
+        <v>29.78607145392365</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.94641349536295</v>
+        <v>35.8474401264534</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>35.57574980102369</v>
+        <v>35.49458134728722</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40.456144673078</v>
+        <v>45.23131643715229</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>41.82730574288331</v>
+        <v>50.5987501450797</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>34.30529606276785</v>
+        <v>6.101210188634488</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>41.45743441311572</v>
+        <v>35.06799571951093</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>43.32600111398094</v>
+        <v>44.06532972939485</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.53410512880037</v>
+        <v>45.92406100402527</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.03835251746836</v>
+        <v>45.24264011838061</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.96031164588486</v>
+        <v>54.75803163769856</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.35027025063079</v>
+        <v>58.85639951562121</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.78598601323321</v>
+        <v>17.9722264908478</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.00238103213056</v>
+        <v>47.42672060304415</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>34.89639765037365</v>
+        <v>53.92676010843886</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.54135063341425</v>
+        <v>4.69725088565456</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.68347710338038</v>
+        <v>49.13149453993034</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.28549725837841</v>
+        <v>52.71000561741182</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>27.11140651689376</v>
+        <v>14.82674609535642</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.44896190110065</v>
+        <v>36.45997433211232</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.11634993854321</v>
+        <v>45.72713929191883</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.47938755588421</v>
+        <v>34.5987310272896</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.38481565484857</v>
+        <v>54.96741619636864</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>35.94520871931135</v>
+        <v>60.11483108980153</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.57453133626618</v>
+        <v>63.83389498691232</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>40.45493972646879</v>
+        <v>73.80792315636317</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>41.82610746939158</v>
+        <v>78.8102356765459</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.30407978471516</v>
+        <v>31.6062141029614</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>41.45623787541085</v>
+        <v>64.5243802437424</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>43.32481349567288</v>
+        <v>72.37753393771969</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.53551767689962</v>
+        <v>44.03717575970391</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.03977798375076</v>
+        <v>43.68502346780411</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.96172554197382</v>
+        <v>53.25783790650603</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.35167851326112</v>
+        <v>57.60928784316429</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.78740724417025</v>
+        <v>15.64897723169724</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.00378565120019</v>
+        <v>46.08438524571282</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.89779466240161</v>
+        <v>52.76071536436122</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.54272764162877</v>
+        <v>2.472409028811297</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.68483997076431</v>
+        <v>47.5965101823956</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.28685368153287</v>
+        <v>51.31465490661274</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>27.11280454750418</v>
+        <v>13.82082819041613</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.45034529475407</v>
+        <v>36.24294775074915</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.11772662550548</v>
+        <v>45.64675460885895</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.48077955708238</v>
+        <v>33.73173852602982</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.38619402179097</v>
+        <v>54.80633744916064</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.94658080845179</v>
+        <v>60.08295540667161</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.57591586044684</v>
+        <v>64.15603929273989</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>40.45631274568173</v>
+        <v>74.18680756105373</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>41.82747493419451</v>
+        <v>79.43587655753329</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.30546023410415</v>
+        <v>31.16050993438918</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>41.45760182912043</v>
+        <v>65.06257354516576</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.32616994818058</v>
+        <v>73.08064262623061</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>27.53701815455254</v>
+        <v>38.6939984387506</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.04129142309482</v>
+        <v>34.49484320307041</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.96325154969604</v>
+        <v>44.05121704373952</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>33.35320492253369</v>
+        <v>49.21171892390259</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.78891036389498</v>
+        <v>8.097626911740635</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.00530733957133</v>
+        <v>36.44605220358504</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.89931707189084</v>
+        <v>44.70949730892799</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.54418700869624</v>
+        <v>-0.7628580245711181</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.68631511990117</v>
+        <v>42.62900533672249</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.288329442094</v>
+        <v>47.63626519343739</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>27.11428240443607</v>
+        <v>9.28260131961064</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.4518393514192</v>
+        <v>29.90179309154755</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.11922133115476</v>
+        <v>40.73556022698902</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.48225852048578</v>
+        <v>27.90447874210524</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.38768807457695</v>
+        <v>47.35880023306184</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.94807546292216</v>
+        <v>53.90538275692985</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>35.57742358853235</v>
+        <v>54.07204066434928</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.457832886471</v>
+        <v>64.10987679990114</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>41.82899549897833</v>
+        <v>70.18051083546025</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.30695776094028</v>
+        <v>22.65825103506101</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>41.45911770190878</v>
+        <v>54.48478518724431</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.32768656479911</v>
+        <v>64.12355357936806</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.93100603421644</v>
+        <v>-11.81896847551208</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.11343782242031</v>
+        <v>25.81513891616549</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.73401743144338</v>
+        <v>28.90146885857224</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.46503854575559</v>
+        <v>-0.2957248526580454</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.84367223098035</v>
+        <v>14.20095635081291</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.53028158392568</v>
+        <v>22.82703410752328</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.85556703318342</v>
+        <v>13.16263317352789</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.79855979684733</v>
+        <v>27.20430536908616</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.37736908725667</v>
+        <v>31.95301990134155</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.89014843842926</v>
+        <v>27.86107829427448</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.80016843827995</v>
+        <v>35.77980210471637</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>38.18652379223395</v>
+        <v>38.70402107249942</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.6108752325475</v>
+        <v>4.021751439352416</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>37.8110162923526</v>
+        <v>26.66355158178369</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>39.70039368067627</v>
+        <v>34.4181112483073</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.76037736249349</v>
+        <v>-10.20610985937627</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.9855074298924</v>
+        <v>30.2388598294603</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.61583445603344</v>
+        <v>33.88537190747825</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.32618426980698</v>
+        <v>-3.489366326450403</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>32.74919401310193</v>
+        <v>13.80532498753277</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.44581180828147</v>
+        <v>23.07463702143891</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>27.71557952061763</v>
+        <v>11.78973377015142</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.70006907892242</v>
+        <v>28.25154586242746</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.92974293018458</v>
+        <v>-0.5685800141056507</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.11219172356761</v>
+        <v>40.19879214768992</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.73277916693175</v>
+        <v>42.35873232468099</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>23.46376550216616</v>
+        <v>14.58210266573434</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.84241681042676</v>
+        <v>32.23698716953868</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.52903430500812</v>
+        <v>39.84736091192813</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.85429939067407</v>
+        <v>29.40091790989556</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.79730858156408</v>
+        <v>46.28730499530073</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>32.3761254991274</v>
+        <v>50.1219658807608</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>31.88889060912827</v>
+        <v>50.01838688808473</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.79892417590395</v>
+        <v>58.21696264007632</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>38.18528634681562</v>
+        <v>60.76878650872059</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.60961973966034</v>
+        <v>23.39892889817593</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.80978062795975</v>
+        <v>49.84176800365422</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.69916711975083</v>
+        <v>56.4489454622959</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.75911744512602</v>
+        <v>4.686197779160507</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.98426463271231</v>
+        <v>48.37819628337905</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.61459953435263</v>
+        <v>51.10701203610336</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.32491435934179</v>
+        <v>15.16526279594582</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.74794184597587</v>
+        <v>35.73559460722761</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.44456782502857</v>
+        <v>44.00249103251046</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.71431501908489</v>
+        <v>31.9291910456574</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.69882111731255</v>
+        <v>51.34044735074556</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.93114974379156</v>
+        <v>-4.292894610813688</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.1135843323429</v>
+        <v>37.14206463088837</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.73416522130914</v>
+        <v>39.43595993235591</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.46519353771387</v>
+        <v>12.00457711691244</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.84383014586955</v>
+        <v>30.42477324622084</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.53044081871656</v>
+        <v>38.16459701973277</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.85572132719975</v>
+        <v>26.95111736105847</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>30.79871682747447</v>
+        <v>44.52211189891915</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>32.37752735771316</v>
+        <v>48.47942460530938</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.89030546036897</v>
+        <v>48.75806929991426</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>36.8003274876119</v>
+        <v>57.02530756594043</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>38.18668400894344</v>
+        <v>59.81920252526798</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>30.61103042348389</v>
+        <v>21.35308216608144</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.81117473940152</v>
+        <v>48.75786435009677</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.70055360430041</v>
+        <v>55.51760954735513</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.76052411013816</v>
+        <v>1.437799203119328</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.98565699039926</v>
+        <v>45.81642656716899</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.61598530446958</v>
+        <v>48.69337193719829</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.32634232979163</v>
+        <v>13.10129936993327</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.74935500911506</v>
+        <v>34.45734636227928</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.44597413246039</v>
+        <v>42.86998819173203</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.71573688091422</v>
+        <v>30.00782716687386</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.70022918809563</v>
+        <v>50.12203777719869</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.9326300101453</v>
+        <v>-5.382253805504801</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.11508051846882</v>
+        <v>34.36848698165876</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.73566196025556</v>
+        <v>37.93481676707647</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.46669212709313</v>
+        <v>9.793238567651118</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.84534507715421</v>
+        <v>26.45972790682287</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.53195633725105</v>
+        <v>35.61400246024201</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.85722108573792</v>
+        <v>23.504949759896</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.80023180652073</v>
+        <v>39.49956819665989</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.37904288095847</v>
+        <v>44.71307421496304</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.8918340254209</v>
+        <v>41.20652710276158</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.80186857495378</v>
+        <v>49.43546902852443</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.18822546160874</v>
+        <v>53.02867062768902</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.61254859182323</v>
+        <v>15.37361512274</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>37.81271141766065</v>
+        <v>40.76272564099401</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.70209095693188</v>
+        <v>49.12585920688574</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.76201763766274</v>
+        <v>-2.032327104862647</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.98716654835536</v>
+        <v>40.60567798568074</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.61749542496317</v>
+        <v>44.77104119360374</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.32785443682928</v>
+        <v>8.423978601839634</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>32.75088357215117</v>
+        <v>27.9675695519682</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.44750329280439</v>
+        <v>37.81021837370387</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.71725014188768</v>
+        <v>23.99740593955757</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>33.70175777607609</v>
+        <v>42.48288176790412</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.28820179937816</v>
+        <v>33.47914263902219</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>34.84316759852153</v>
+        <v>30.36101216682513</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>39.7880592211535</v>
+        <v>40.162417585131</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.18381686318385</v>
+        <v>44.57219990901681</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>33.55193354223596</v>
+        <v>5.904653496398248</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>40.80160763800165</v>
+        <v>33.40515414160469</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>42.70234189327685</v>
+        <v>41.22035247722695</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.81454173678869</v>
+        <v>-10.18270762112763</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>39.98409014894563</v>
+        <v>32.48559426677955</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.59197721402188</v>
+        <v>37.15085216021488</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.56977990183164</v>
+        <v>-3.561619956429928</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>40.93578190806939</v>
+        <v>16.39932188949705</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.60913494523891</v>
+        <v>26.86731687137242</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.91989648978874</v>
+        <v>15.15617963214486</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.85156669453004</v>
+        <v>33.9797354961029</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.41768680603568</v>
+        <v>40.21631272559359</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>43.09784442234436</v>
+        <v>41.47756546399633</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>48.00060963126811</v>
+        <v>51.71687168464096</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.37730165204306</v>
+        <v>57.0377709557533</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>41.79055150923295</v>
+        <v>12.061275915041</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.97502334502115</v>
+        <v>42.90981118765681</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.84994957297201</v>
+        <v>52.12352286637995</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.28696150428372</v>
+        <v>55.66463567490592</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.8419130987799</v>
+        <v>56.54157700009647</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>39.78681838383565</v>
+        <v>66.60121937629542</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.18258288434107</v>
+        <v>70.62655754355997</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.55068137232597</v>
+        <v>29.2440053260912</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>40.80037543031063</v>
+        <v>60.70077353424193</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.70111883680291</v>
+        <v>67.36963600515557</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.81333080517994</v>
+        <v>9.133108910491634</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.98289623902509</v>
+        <v>55.07865834555519</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.59079103620934</v>
+        <v>58.781011152211</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>34.56855958920556</v>
+        <v>19.67996524355842</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>40.93457923858575</v>
+        <v>42.95178663764072</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.60794031036941</v>
+        <v>52.36822085189548</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.91868147048615</v>
+        <v>39.92185626084505</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>41.85036812322481</v>
+        <v>61.7258078358667</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.41649576056558</v>
+        <v>67.01622589072099</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>43.09663971419504</v>
+        <v>72.39570134432222</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>47.99941852058679</v>
+        <v>82.87783961726367</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>49.37611727034739</v>
+        <v>87.80402551808768</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>41.78934891944903</v>
+        <v>40.12506213202732</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.97384060115713</v>
+        <v>74.95804304075116</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>50.84877581449683</v>
+        <v>82.98405268996181</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>35.28836315607252</v>
+        <v>54.58335651052608</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.84332769357647</v>
+        <v>55.7928787115335</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>39.78822135110748</v>
+        <v>65.91205751842132</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.18398016796871</v>
+        <v>70.18662645019499</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>33.55209179230141</v>
+        <v>27.72285590323945</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>40.8017691587532</v>
+        <v>60.16481607255358</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.70250489999957</v>
+        <v>67.00387739930761</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.81469786924488</v>
+        <v>7.687954290384775</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.98424909678099</v>
+        <v>54.326595389776</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.59213739931289</v>
+        <v>58.16421927803916</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.56994725531092</v>
+        <v>19.46917143961813</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>40.93595219992057</v>
+        <v>43.53369820270495</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.60930651324509</v>
+        <v>53.08159945195539</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.9200631584074</v>
+        <v>39.86295811685613</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.85173611415593</v>
+        <v>62.37603404726385</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.41785742459405</v>
+        <v>67.79133029091646</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>43.09801383466029</v>
+        <v>73.52812922651565</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>48.00078108048268</v>
+        <v>84.06918730682834</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>49.37747422716238</v>
+        <v>89.23828599043368</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>41.79071902215986</v>
+        <v>40.48328679204454</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>48.97519413134643</v>
+        <v>76.30426870226793</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.8501217870146</v>
+        <v>84.4890001290814</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.28989229760896</v>
+        <v>48.21446801218502</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.84487005591409</v>
+        <v>45.53426963977937</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.78977632322574</v>
+        <v>55.64147632178925</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.18553551309397</v>
+        <v>60.75117918362556</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.55362369127449</v>
+        <v>19.10811015843704</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.80331969563262</v>
+        <v>49.45847592797953</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.70405612281365</v>
+        <v>57.92727629987929</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.81618443004439</v>
+        <v>3.400421783040075</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.98575149600306</v>
+        <v>48.30269177212141</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>41.59364038018656</v>
+        <v>53.46213967824104</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.57145274688902</v>
+        <v>13.8925670154797</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.93747394985455</v>
+        <v>36.14894229398235</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.61082888100438</v>
+        <v>47.16337972943396</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.92156972060565</v>
+        <v>32.96184576071102</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.85325781925864</v>
+        <v>53.85034341873052</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>43.41937970227255</v>
+        <v>60.56756841027421</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>43.09954944291124</v>
+        <v>62.35624593560755</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>48.00232914206288</v>
+        <v>72.90884836259904</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>49.37902268457944</v>
+        <v>78.925500153264</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>41.79224429293782</v>
+        <v>30.89844240680335</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>48.97673781581437</v>
+        <v>64.63816099396911</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>50.85166618024166</v>
+        <v>74.48671577800057</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.70725537444639</v>
+        <v>-18.72779777854511</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.80276646755105</v>
+        <v>15.18664277747408</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.40465377153088</v>
+        <v>18.2302014023538</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.99869285950735</v>
+        <v>-7.812959901959514</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.28758931311912</v>
+        <v>2.976348578497303</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.95478007142671</v>
+        <v>11.47499098794358</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.39937153774582</v>
+        <v>3.808675764482162</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.25904666465492</v>
+        <v>14.56028860059506</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.8195247229043</v>
+        <v>19.22493300547109</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.28110936883678</v>
+        <v>13.71456064092629</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.12183969707483</v>
+        <v>20.35165257382877</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.49166669118822</v>
+        <v>23.58841671829889</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.0703979318029</v>
+        <v>-8.372717179967522</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.16888578416368</v>
+        <v>10.09103392498435</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.0368995411952</v>
+        <v>17.64983429169487</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>15.48194373345728</v>
+        <v>-17.53329357371475</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.61971687282601</v>
+        <v>19.15658135221465</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.23149521355016</v>
+        <v>22.95321950090693</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.80467273294811</v>
+        <v>-11.17352759622841</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>22.1374891258404</v>
+        <v>2.372876682005623</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.81484024265691</v>
+        <v>11.72916974275081</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>17.20437877603539</v>
+        <v>2.267187593817249</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.10512276863481</v>
+        <v>15.40377364344612</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.70598043456254</v>
+        <v>-10.22770649905573</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.80150825658954</v>
+        <v>26.74571211740357</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.40340328010142</v>
+        <v>28.91982524062924</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>12.99740730891665</v>
+        <v>4.241064678021191</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>19.28632109951285</v>
+        <v>18.10993664009239</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.95351988030692</v>
+        <v>25.6563512013083</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.39809141554661</v>
+        <v>17.13911071086273</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.25778270328303</v>
+        <v>30.66560086095807</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.81826827633397</v>
+        <v>34.47193181052153</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.27983878858232</v>
+        <v>32.83730521762755</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.12058245813835</v>
+        <v>39.74467867704903</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.49041616357918</v>
+        <v>42.65304196527342</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.06912981613124</v>
+        <v>8.03763210757687</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.16763717504117</v>
+        <v>30.21051703727294</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.03565990411258</v>
+        <v>36.69508988354618</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.48067184137506</v>
+        <v>-5.451976641693891</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.61846182316262</v>
+        <v>34.41085484699403</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.23024792464151</v>
+        <v>37.34960170752189</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.80339017703761</v>
+        <v>4.597375400879139</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.13622402564693</v>
+        <v>21.34092946153718</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.81358320726091</v>
+        <v>29.76150010560925</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.20310165651216</v>
+        <v>19.43673172850036</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.10386192115801</v>
+        <v>35.45312049821289</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.70739437471497</v>
+        <v>-14.81473147377727</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.80290820834442</v>
+        <v>22.81506983692694</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.40479678124702</v>
+        <v>25.13080552384666</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.99884288704528</v>
+        <v>0.766337593046762</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.28774220134662</v>
+        <v>15.38748091165465</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.95493426801015</v>
+        <v>23.07236540861594</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>14.39952088304847</v>
+        <v>13.77960553850136</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>20.25919868820852</v>
+        <v>27.97919166880575</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.8196779753841</v>
+        <v>31.91583921588494</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.28126133892265</v>
+        <v>30.64872927102135</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.12199364516129</v>
+        <v>37.62224042148218</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.4918217962403</v>
+        <v>40.77638167808245</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>20.07054810612838</v>
+        <v>5.083123285686094</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.16903914564269</v>
+        <v>28.20144192724116</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.03705436648331</v>
+        <v>34.84893797660497</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.48208570004542</v>
+        <v>-9.60312053384356</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.61986159210555</v>
+        <v>30.93483490697741</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.23164120978992</v>
+        <v>34.02932762516919</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.80482575685152</v>
+        <v>1.594760633802002</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.13764502317962</v>
+        <v>19.11067272534776</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.81499745666562</v>
+        <v>27.68594019570975</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.20453111569289</v>
+        <v>16.56334507119231</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.10527779847929</v>
+        <v>33.27091084321756</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.70882873435386</v>
+        <v>-14.95845750914121</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.80435830056715</v>
+        <v>21.00606873221426</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.40624744735986</v>
+        <v>24.54204946186262</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>13.00029488934991</v>
+        <v>-0.5032142053422906</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>19.2892103530768</v>
+        <v>12.3843803607391</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.95640302887997</v>
+        <v>21.42557178840626</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>14.40097408799286</v>
+        <v>11.32743326483453</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.26066693572102</v>
+        <v>23.96852120015288</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.82114678758518</v>
+        <v>29.11015143274565</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.28274278538568</v>
+        <v>24.1547981105582</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.12348747039728</v>
+        <v>31.08110226891861</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.49331600888192</v>
+        <v>34.99548474124446</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>20.07201940932593</v>
+        <v>0.1408982928443177</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.1705287386373</v>
+        <v>21.26739789984857</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.03854465839748</v>
+        <v>29.44966865809506</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>15.48353315064061</v>
+        <v>-12.1586302207448</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.62132488518386</v>
+        <v>26.65625077701907</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.23310508713848</v>
+        <v>30.98511521572626</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>15.80629110329214</v>
+        <v>-2.173465836355293</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.13912663233797</v>
+        <v>13.5487346937121</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.81647968571758</v>
+        <v>23.49374039222293</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>17.20599765022468</v>
+        <v>11.51482232608918</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.10675948133146</v>
+        <v>26.61023862414494</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.67506715591357</v>
+        <v>20.73760414710468</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.17799076187637</v>
+        <v>16.00348097370711</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.05321383126677</v>
+        <v>24.49120495690001</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.43253271917761</v>
+        <v>29.29612332258156</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.95549532055509</v>
+        <v>-6.804784182036249</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.10301500440748</v>
+        <v>16.42556490438893</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.98255447065797</v>
+        <v>24.31526794858168</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>23.81080252287896</v>
+        <v>-14.19798000749426</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.89433780021625</v>
+        <v>24.78650430088803</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.48424526539218</v>
+        <v>29.60249816024331</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.32589169711965</v>
+        <v>-7.92311032301876</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.60308406404729</v>
+        <v>8.36464658997467</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>32.25777362594732</v>
+        <v>18.91932658887818</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.68663347245062</v>
+        <v>8.986836210566016</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.53583966674308</v>
+        <v>24.55229240807652</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.0843403186844</v>
+        <v>30.89566566684397</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.71146267192474</v>
+        <v>30.35619547489017</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>37.5455303262866</v>
+        <v>39.31462926961284</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.90627720866827</v>
+        <v>45.04816718729511</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.47060339797304</v>
+        <v>2.656962570525485</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.55450643111354</v>
+        <v>29.2949818357302</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.40890593856355</v>
+        <v>38.58665326631842</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>24.67381386267094</v>
+        <v>39.94208570327724</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>24.17672337028302</v>
+        <v>39.09220168432972</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.05195987521934</v>
+        <v>47.82984206734556</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.43128551578317</v>
+        <v>52.29652967827695</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>22.95423038731551</v>
+        <v>13.50859772757064</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.10176970972615</v>
+        <v>40.60371091691737</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.98131819584001</v>
+        <v>47.42369253444928</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.80957983275847</v>
+        <v>2.303453382704904</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.89313185853687</v>
+        <v>44.49077118587196</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.48304694421429</v>
+        <v>48.40529756433825</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.32465896677096</v>
+        <v>12.43177384577558</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.60186869389598</v>
+        <v>31.95151326243541</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>32.25656617460921</v>
+        <v>41.52308842788921</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.68540606267395</v>
+        <v>30.77992891148494</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>31.53462844141647</v>
+        <v>49.25580825359564</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>33.08313651000628</v>
+        <v>54.71310381624136</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>32.7102453000691</v>
+        <v>58.17923242052228</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.54432632836312</v>
+        <v>67.37237895947482</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>38.90507983701507</v>
+        <v>72.75773937199222</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.46938827019981</v>
+        <v>27.69027655059139</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.55331083093979</v>
+        <v>58.22094816160901</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.40771919603172</v>
+        <v>66.40318723494583</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.67522342242313</v>
+        <v>37.90459898410549</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.17814573305451</v>
+        <v>37.37504275685949</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.05337078770755</v>
+        <v>46.16994420197984</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.43269084003514</v>
+        <v>50.8895208312107</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.95564848222807</v>
+        <v>11.03791038590893</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.10317136741987</v>
+        <v>39.10151127123164</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.98271230692615</v>
+        <v>46.10191594139285</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.8109538032623</v>
+        <v>-0.06724708647172939</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.89449183667688</v>
+        <v>42.80157738795365</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>31.4844005290252</v>
+        <v>46.85938455363462</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.32605394913696</v>
+        <v>11.25909698837169</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.60324919276009</v>
+        <v>31.5581031698444</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>32.25794002002712</v>
+        <v>41.2705314960181</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.68679505422285</v>
+        <v>29.74562626337809</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.53600394168604</v>
+        <v>48.91877903181</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.0845057823724</v>
+        <v>54.50892499251076</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.71162689640939</v>
+        <v>58.31979392169032</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.5456965387765</v>
+        <v>67.56948396315877</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>38.9064445374141</v>
+        <v>73.20151196188311</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.47076575907174</v>
+        <v>27.07492119434405</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.55467199729271</v>
+        <v>58.57694058161224</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>40.40907292051953</v>
+        <v>66.92847358644448</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.67670567997328</v>
+        <v>32.46112812070123</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.17964080070069</v>
+        <v>28.13996889196822</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.05487832093286</v>
+        <v>36.91261867558821</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.43419876899752</v>
+        <v>42.42620715965604</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>22.95713334062348</v>
+        <v>3.426663847461098</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.104674642709</v>
+        <v>29.42049748892882</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.98421629347725</v>
+        <v>37.98001017454182</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.81239556294701</v>
+        <v>-3.440822843465879</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.8959492495136</v>
+        <v>37.71035578921647</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.48585854514322</v>
+        <v>43.03486995156882</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.32751396167085</v>
+        <v>6.589699112068439</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.60472527310968</v>
+        <v>25.10060060926138</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.25941674072859</v>
+        <v>36.21815406333638</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.68825617317486</v>
+        <v>23.8043215443242</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>31.53748002739881</v>
+        <v>41.37060853469644</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.08598246174048</v>
+        <v>48.20862935182831</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>32.71311649785241</v>
+        <v>48.16874785669567</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>37.54719845124839</v>
+        <v>57.41966519425149</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>38.90794686802798</v>
+        <v>63.85816739095451</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>31.4722452676485</v>
+        <v>18.49183940846791</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>38.55616970170139</v>
+        <v>47.93578886145544</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>40.41057135896678</v>
+        <v>57.87940638738288</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.52410748367968</v>
+        <v>-10.30554058397976</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.82406592236089</v>
+        <v>26.31455095072829</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.47472094733382</v>
+        <v>29.78353589584405</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.96961758900252</v>
+        <v>2.131308931151763</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.46971636279738</v>
+        <v>15.73817483503577</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.18732975216448</v>
+        <v>24.76213571922706</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.4074041235306</v>
+        <v>14.67255861215696</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.46363219853876</v>
+        <v>27.90872475387076</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.07151350682666</v>
+        <v>33.03351398329527</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.64189086039435</v>
+        <v>29.11187235873976</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.64711475648217</v>
+        <v>36.59681810804152</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.05872350204719</v>
+        <v>39.74381847875278</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.41510202860769</v>
+        <v>6.260219503723233</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.75206167505155</v>
+        <v>27.85959715666996</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.67611371019422</v>
+        <v>36.07134770402286</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.31519194657096</v>
+        <v>-10.72875690815551</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.65842106446702</v>
+        <v>28.65037061284993</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.3189636530079</v>
+        <v>32.68729251039602</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.79155845281458</v>
+        <v>-3.128749209984653</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.33662959892984</v>
+        <v>13.22219852482686</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.0643949308703</v>
+        <v>22.89885329391367</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.22856890562406</v>
+        <v>11.14846592745934</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.32685335145875</v>
+        <v>26.75748327823747</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>15.52279907241878</v>
+        <v>1.073228159447835</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.82277477498306</v>
+        <v>40.7961269936189</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>23.47343782474301</v>
+        <v>43.3512511670276</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>15.96829874814343</v>
+        <v>17.12081344463731</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.46841541302815</v>
+        <v>33.85481549149078</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>24.18603714053329</v>
+        <v>41.87669741209998</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.40609084228824</v>
+        <v>31.0127179868697</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.46233559429314</v>
+        <v>47.06541572945766</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.07022471418279</v>
+        <v>51.28854949924874</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>24.64058774951278</v>
+        <v>51.32803080002711</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.64582543054474</v>
+        <v>59.08880715143598</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.05744115556379</v>
+        <v>61.86768682119466</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.41380154282799</v>
+        <v>25.72637335194939</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.75078131901814</v>
+        <v>51.08932183619945</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.67484267710673</v>
+        <v>58.16761799409918</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.31388647293739</v>
+        <v>4.290196909516366</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>24.65713297099787</v>
+        <v>46.88481352240967</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.31768362650931</v>
+        <v>50.01678809439731</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>18.79024249104812</v>
+        <v>15.63496228657909</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.33533164988989</v>
+        <v>35.22940813959644</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.06310536326475</v>
+        <v>43.9174405771637</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.22725851231908</v>
+        <v>31.38633409297459</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.32555974910044</v>
+        <v>49.91563308089012</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.52425647283749</v>
+        <v>-2.595945416805259</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.82421774058978</v>
+        <v>37.78979705396703</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>23.47487409299023</v>
+        <v>40.47971267340218</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>15.96977811762494</v>
+        <v>14.5884169509622</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.46987984419145</v>
+        <v>32.08230136746585</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.18749460226257</v>
+        <v>40.23452471040721</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>17.40756394486775</v>
+        <v>28.61016038387454</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>23.4637947843113</v>
+        <v>45.34252274418401</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.07167737832961</v>
+        <v>49.68911987669048</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.64205349115884</v>
+        <v>50.10648243276611</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.64727943623513</v>
+        <v>57.93613589882578</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.05888938967156</v>
+        <v>60.95612666187863</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.41526279077256</v>
+        <v>23.72424597672089</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.75222572657414</v>
+        <v>50.04212286969707</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.67627929286921</v>
+        <v>57.27364196139781</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>18.31534400748054</v>
+        <v>1.110308185169101</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>24.65857596715986</v>
+        <v>44.38667559154618</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.31911989148431</v>
+        <v>47.66761804193148</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.79172208361878</v>
+        <v>13.62970993773436</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.33679619580775</v>
+        <v>34.00429929719424</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>27.06456290509908</v>
+        <v>42.83895700014238</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>20.22873182746611</v>
+        <v>29.52604914813394</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.32701905019246</v>
+        <v>48.7532255924542</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>15.52574912295987</v>
+        <v>-3.82356324827794</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.82572667751012</v>
+        <v>34.89280790550218</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>23.47638355230273</v>
+        <v>38.84581550477989</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>15.97128924551172</v>
+        <v>12.24869150087868</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>22.4714076925037</v>
+        <v>28.0043182260052</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.18902300627617</v>
+        <v>37.56064992102693</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.40907632060742</v>
+        <v>25.04168259752942</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>23.46532273358207</v>
+        <v>40.21166042607516</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.07320584205154</v>
+        <v>45.80515242016634</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.64359539229555</v>
+        <v>42.46212563780822</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.64883414718791</v>
+        <v>50.25440303279493</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.0604444378553</v>
+        <v>54.0689255233252</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>23.4167942423762</v>
+        <v>17.63621552749529</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.75377611519339</v>
+        <v>41.95685187236025</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>32.67783032078717</v>
+        <v>50.78128209192068</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>18.31685000178202</v>
+        <v>-2.487895485924708</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.66009836072963</v>
+        <v>39.06329860815802</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.3206428168939</v>
+        <v>43.62319224061469</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>18.79324681323466</v>
+        <v>8.835054037478619</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.33833776181835</v>
+        <v>27.41322563118663</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.06610503658455</v>
+        <v>37.66747202763115</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.23025779055059</v>
+        <v>23.40512002027518</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.32856069506605</v>
+        <v>41.01809177076209</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.94419099253036</v>
+        <v>32.37035885394582</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.55735586442731</v>
+        <v>29.3731421197101</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.597935530461</v>
+        <v>38.71638188156386</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.01908330160114</v>
+        <v>43.34131325360746</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.31897905447113</v>
+        <v>5.906787043631047</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.70613285963265</v>
+        <v>32.29269412621163</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.64170634925938</v>
+        <v>40.5719930617015</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.55126344077978</v>
+        <v>-10.0470434752035</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.83751587811327</v>
+        <v>31.54442456257919</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.47521500005094</v>
+        <v>36.60062758062765</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.21997570982959</v>
+        <v>-2.517364320951208</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.70660345569275</v>
+        <v>16.48492964091734</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.41069047310253</v>
+        <v>27.36021583236626</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.61709454494912</v>
+        <v>15.17202997562171</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.66122478305146</v>
+        <v>33.1297369703647</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.25615852094798</v>
+        <v>39.75233814741217</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>35.99523527267429</v>
+        <v>41.09436849144008</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>40.9925826425193</v>
+        <v>50.86945162753529</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.39438143118848</v>
+        <v>56.40651102474609</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.73977567395556</v>
+        <v>12.67708249863889</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.06009948475274</v>
+        <v>42.39040738614815</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>43.96940409258142</v>
+        <v>52.06906429150617</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.9429052421216</v>
+        <v>54.63767381357044</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>27.556055832896</v>
+        <v>55.60655627606714</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>32.59664938048594</v>
+        <v>65.2043667245471</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.01780417356247</v>
+        <v>69.44905307768248</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.31768164353699</v>
+        <v>29.32925868990091</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>33.70485571363778</v>
+        <v>59.63252355660196</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>35.64043857515848</v>
+        <v>66.77966137649545</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.55000788738371</v>
+        <v>9.394085878241237</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.83627760357994</v>
+        <v>54.23126155070129</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.47398464617835</v>
+        <v>58.33748585699158</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>27.21871028927896</v>
+        <v>20.83017318645453</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.70535594481079</v>
+        <v>43.1111935076455</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>35.40945119136769</v>
+        <v>52.9489032671977</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.61583457568819</v>
+        <v>40.03300995841912</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.65998151016522</v>
+        <v>60.9419460198252</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.25492295647189</v>
+        <v>66.63113073785112</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>35.99398597633184</v>
+        <v>72.0608588289704</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>40.99134716074132</v>
+        <v>82.07524041854248</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>42.39315283934304</v>
+        <v>87.22199339331067</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.738528781369</v>
+        <v>40.81907922259012</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>42.05887273753122</v>
+        <v>74.47786104376056</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>43.96818654806778</v>
+        <v>82.98319929537261</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.94435798504412</v>
+        <v>53.61320085834983</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.55752160296418</v>
+        <v>54.9104082948305</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>32.59810332562868</v>
+        <v>64.56806210628686</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.01925231242911</v>
+        <v>69.06104438465464</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.31914291035188</v>
+        <v>27.86553522257241</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.70630001966885</v>
+        <v>59.14681141625109</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.64187505027393</v>
+        <v>66.46480483738783</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.55142500039345</v>
+        <v>8.005946880004645</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.83768028237583</v>
+        <v>53.53131297962638</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.47538068835654</v>
+        <v>57.77366068529977</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.22014874482976</v>
+        <v>20.66582108034119</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>33.70677945948043</v>
+        <v>43.73395148647867</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.41086780091328</v>
+        <v>53.70402839186874</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.61726688645129</v>
+        <v>40.02294722253166</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>34.66139990392365</v>
+        <v>61.63591228926587</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.25633488577618</v>
+        <v>67.45079244163006</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.99541043982706</v>
+        <v>73.23324552204193</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>40.99275986869281</v>
+        <v>83.3068872896997</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>42.39455982283171</v>
+        <v>88.69566967443144</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.73994890318291</v>
+        <v>41.22212697912182</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.06027602125118</v>
+        <v>75.8617182676176</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.96958211034228</v>
+        <v>84.52644820101467</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.94590015345755</v>
+        <v>47.1389548408366</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.55907739030976</v>
+        <v>44.57281983651382</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.59967201175814</v>
+        <v>54.21908682055997</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>34.02082134324141</v>
+        <v>59.54245095018226</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.32068818115667</v>
+        <v>19.15560126670795</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.70786435756937</v>
+        <v>48.3645240522739</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>35.64344003872254</v>
+        <v>57.30161626415038</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.55292402287635</v>
+        <v>3.567192968640102</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.8391955077235</v>
+        <v>47.37132596925164</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.47689646521358</v>
+        <v>52.9259449192004</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.22166685892493</v>
+        <v>14.94945299171237</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.70831420779415</v>
+        <v>36.22512043417717</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>35.41240313581876</v>
+        <v>47.65122637987611</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.61878614918637</v>
+        <v>32.98863718967211</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.66293466011317</v>
+        <v>52.99124107176085</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.25787018508976</v>
+        <v>60.09859225291056</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.99695946459681</v>
+        <v>61.96023199036249</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>40.99432163214725</v>
+        <v>72.0457981476236</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>42.39612195457204</v>
+        <v>78.27727006902181</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.74148753751275</v>
+        <v>31.52071655341528</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>42.06183349335191</v>
+        <v>64.0979607922965</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>43.97114025646637</v>
+        <v>74.41575562983812</v>
       </c>
     </row>
   </sheetData>
